--- a/biology/Botanique/Vernonia_chapmanii/Vernonia_chapmanii.xlsx
+++ b/biology/Botanique/Vernonia_chapmanii/Vernonia_chapmanii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vernonia chapmanii C.D.Adams est une espèce de plantes à fleurs de la famille des Asteraceae et du genre Vernonia, présente en Afrique tropicale.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique chapmanii rend hommage à J. W. F. Chapman, qui récolta des spécimens sur le plateau de Mambila au Nigeria[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique chapmanii rend hommage à J. W. F. Chapman, qui récolta des spécimens sur le plateau de Mambila au Nigeria.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe dressée pérenne ou annuelle, qui se développe en touffe ramifiée dès la base. Elle atteint 20 à 30 cm de hauteur. Les feuilles sont simples et sessiles. De couleur verdâtre à mauve clair, les fleurs sont assemblées en capitules solitaires ou très peu nombreux au sommet des axes feuillés. Les fruits sont des akènes pubescents de 2 mm de long, surmontés d'un pappus de longues soies[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe dressée pérenne ou annuelle, qui se développe en touffe ramifiée dès la base. Elle atteint 20 à 30 cm de hauteur. Les feuilles sont simples et sessiles. De couleur verdâtre à mauve clair, les fleurs sont assemblées en capitules solitaires ou très peu nombreux au sommet des axes feuillés. Les fruits sont des akènes pubescents de 2 mm de long, surmontés d'un pappus de longues soies.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peu abondante, elle croît plus fréquemment dans les jachères, où elle se multiplie majoritairement par graines transportées par le vent, sans préférence pédologique ou climatique notable[3], à une altitude moyenne comprise entre 100 et 1 600 m[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peu abondante, elle croît plus fréquemment dans les jachères, où elle se multiplie majoritairement par graines transportées par le vent, sans préférence pédologique ou climatique notable, à une altitude moyenne comprise entre 100 et 1 600 m.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Subendémique, vulnérable du fait de sa relative rareté et de la pression liée notamment à l'élevage, l'espèce est présente principalement au Cameroun sur six sites dans deux régions (Adamaoua et Centre), également sur un site au nord-est du Nigeria[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Subendémique, vulnérable du fait de sa relative rareté et de la pression liée notamment à l'élevage, l'espèce est présente principalement au Cameroun sur six sites dans deux régions (Adamaoua et Centre), également sur un site au nord-est du Nigeria.
 </t>
         </is>
       </c>
